--- a/Quá trình làm đồ án.xlsx
+++ b/Quá trình làm đồ án.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,53 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+  <si>
+    <t>Tìm Hiểu về linked list</t>
+  </si>
+  <si>
+    <t>Luyên tập lập trình hướng đối tượng</t>
+  </si>
+  <si>
+    <t>Sử dụng hướng đối tượng trong đồ án</t>
+  </si>
+  <si>
+    <t>Phân chia Ra các class</t>
+  </si>
+  <si>
+    <t>Tìm hiểu winform C#</t>
+  </si>
+  <si>
+    <t>Xây dựng giao diện cho đồ án</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Điền </t>
+  </si>
+  <si>
+    <t>Hiệp</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Nội dung thực hiện</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -37,7 +79,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -45,12 +87,135 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,12 +496,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.5546875" customWidth="1"/>
+    <col min="3" max="3" width="59.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="3:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Quá trình làm đồ án.xlsx
+++ b/Quá trình làm đồ án.xlsx
@@ -19,43 +19,103 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
-  <si>
-    <t>Tìm Hiểu về linked list</t>
-  </si>
-  <si>
-    <t>Luyên tập lập trình hướng đối tượng</t>
-  </si>
-  <si>
-    <t>Sử dụng hướng đối tượng trong đồ án</t>
-  </si>
-  <si>
-    <t>Phân chia Ra các class</t>
-  </si>
-  <si>
-    <t>Tìm hiểu winform C#</t>
-  </si>
-  <si>
-    <t>Xây dựng giao diện cho đồ án</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Điền </t>
-  </si>
-  <si>
-    <t>Hiệp</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>Nội dung thực hiện</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+  <si>
+    <t>BẢNG PHÂN CÔNG CÔNG VIỆC THỰC HIỆN ĐỒ ÁN CUỐI KÌ DATASTRUCTURE HK1 2018 (Dự kiến )</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Tên công việc</t>
+  </si>
+  <si>
+    <t>Nguyễn Xuân Điền</t>
+  </si>
+  <si>
+    <t>Vũ Hoàng Hiệp</t>
+  </si>
+  <si>
+    <t>Ngày bắt đầu dự kiến</t>
+  </si>
+  <si>
+    <t>Ngày kết thúc dự kiến</t>
+  </si>
+  <si>
+    <t>Tìm hiểu về Danh sách liên kết</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>21/9/2018</t>
+  </si>
+  <si>
+    <t>28/9/2018</t>
+  </si>
+  <si>
+    <t>xây dựng class sinh viên, môn học, lớp, ngành</t>
+  </si>
+  <si>
+    <t>21/92018</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa đóng góp ý kiến, mở rộng quy mô chương trình</t>
+  </si>
+  <si>
+    <t>xây dựng danh sách liên kết sinh viên</t>
+  </si>
+  <si>
+    <t>xây dựng danh sách liên kết lớp</t>
+  </si>
+  <si>
+    <t>30/9/2018</t>
+  </si>
+  <si>
+    <t>Xây dựng danh sách liên kết môn học</t>
+  </si>
+  <si>
+    <t>21/09/2018</t>
+  </si>
+  <si>
+    <t>Tìm hiểu winform</t>
+  </si>
+  <si>
+    <t>1/10/2018.</t>
+  </si>
+  <si>
+    <t>15/10/2018</t>
+  </si>
+  <si>
+    <t>Xây dựng giao diện winform</t>
+  </si>
+  <si>
+    <t>31/10/2018</t>
+  </si>
+  <si>
+    <t>tạo chức năng thêm, sửa xóa sinh viên</t>
+  </si>
+  <si>
+    <t>Cải thiện thêm bớt chức năng, giao diện chương trình sinh viên</t>
+  </si>
+  <si>
+    <t>1/11/2018.</t>
+  </si>
+  <si>
+    <t>15/11/2018</t>
+  </si>
+  <si>
+    <t>Hoàn thành đồ án cuối kì</t>
+  </si>
+  <si>
+    <t>20/11/2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +130,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -79,7 +152,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -87,133 +160,32 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -496,140 +468,279 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" customWidth="1"/>
-    <col min="3" max="3" width="59.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.21875" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C9" s="12" t="s">
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
         <v>4</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C10" s="13" t="s">
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="9">
+        <v>43291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
         <v>5</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="3:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Quá trình làm đồ án.xlsx
+++ b/Quá trình làm đồ án.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>BẢNG PHÂN CÔNG CÔNG VIỆC THỰC HIỆN ĐỒ ÁN CUỐI KÌ DATASTRUCTURE HK1 2018 (Dự kiến )</t>
   </si>
@@ -54,9 +54,6 @@
     <t>28/9/2018</t>
   </si>
   <si>
-    <t>xây dựng class sinh viên, môn học, lớp, ngành</t>
-  </si>
-  <si>
     <t>21/92018</t>
   </si>
   <si>
@@ -109,6 +106,12 @@
   </si>
   <si>
     <t>20/11/2018</t>
+  </si>
+  <si>
+    <t>Tiến độ</t>
+  </si>
+  <si>
+    <t>xây dựng class sinh viên,lớp, môn học, ngành</t>
   </si>
 </sst>
 </file>
@@ -164,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -187,6 +190,18 @@
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,9 +497,10 @@
     <col min="4" max="4" width="20.5546875" customWidth="1"/>
     <col min="5" max="5" width="17.5546875" customWidth="1"/>
     <col min="6" max="6" width="24.109375" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -494,12 +510,12 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -518,8 +534,11 @@
       <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -538,13 +557,16 @@
       <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>8</v>
@@ -554,15 +576,18 @@
         <v>9</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="7" t="s">
@@ -574,13 +599,16 @@
       <c r="F6" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>8</v>
@@ -594,13 +622,16 @@
       <c r="F7" s="9">
         <v>43291</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>8</v>
@@ -610,71 +641,79 @@
         <v>9</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="G8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="7" t="s">
@@ -684,55 +723,60 @@
         <v>9</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="F13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>

--- a/Quá trình làm đồ án.xlsx
+++ b/Quá trình làm đồ án.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
   <si>
     <t>BẢNG PHÂN CÔNG CÔNG VIỆC THỰC HIỆN ĐỒ ÁN CUỐI KÌ DATASTRUCTURE HK1 2018 (Dự kiến )</t>
   </si>
@@ -60,39 +60,21 @@
     <t>Chỉnh sửa đóng góp ý kiến, mở rộng quy mô chương trình</t>
   </si>
   <si>
-    <t>xây dựng danh sách liên kết sinh viên</t>
-  </si>
-  <si>
-    <t>xây dựng danh sách liên kết lớp</t>
-  </si>
-  <si>
     <t>30/9/2018</t>
   </si>
   <si>
-    <t>Xây dựng danh sách liên kết môn học</t>
-  </si>
-  <si>
     <t>21/09/2018</t>
   </si>
   <si>
-    <t>Tìm hiểu winform</t>
-  </si>
-  <si>
     <t>1/10/2018.</t>
   </si>
   <si>
     <t>15/10/2018</t>
   </si>
   <si>
-    <t>Xây dựng giao diện winform</t>
-  </si>
-  <si>
     <t>31/10/2018</t>
   </si>
   <si>
-    <t>tạo chức năng thêm, sửa xóa sinh viên</t>
-  </si>
-  <si>
     <t>Cải thiện thêm bớt chức năng, giao diện chương trình sinh viên</t>
   </si>
   <si>
@@ -102,16 +84,67 @@
     <t>15/11/2018</t>
   </si>
   <si>
-    <t>Hoàn thành đồ án cuối kì</t>
-  </si>
-  <si>
-    <t>20/11/2018</t>
-  </si>
-  <si>
     <t>Tiến độ</t>
   </si>
   <si>
-    <t>xây dựng class sinh viên,lớp, môn học, ngành</t>
+    <t>xây dựng class sinh viên,lớp, môn học, ngành bằng C#</t>
+  </si>
+  <si>
+    <t>xây dựng danh sách liên kết sinh viên C#</t>
+  </si>
+  <si>
+    <t>xây dựng danh sách liên kết lớp C#</t>
+  </si>
+  <si>
+    <t>Xây dựng danh sách liên kết môn học C#</t>
+  </si>
+  <si>
+    <t>Tìm hiểu winform C#</t>
+  </si>
+  <si>
+    <t>Xây dựng giao diện winform C#</t>
+  </si>
+  <si>
+    <t>tạo chức năng thêm, sửa xóa sinh viên C#</t>
+  </si>
+  <si>
+    <t>xây dựng class sinh viên,lớp, môn học, ngành bằng C++</t>
+  </si>
+  <si>
+    <t>Xây dựng danh sách liên kết môn học C++</t>
+  </si>
+  <si>
+    <t>tạo chức năng thêm, sửa xóa sinh viên C++</t>
+  </si>
+  <si>
+    <t>Cải thiện chức năng thêm sửa xóa</t>
+  </si>
+  <si>
+    <t>Học nhóm cải thiện lại đồ án</t>
+  </si>
+  <si>
+    <t>Xây dưng xuất file excel</t>
+  </si>
+  <si>
+    <t>Xây dựng danh sách liên kết sinh viên C++</t>
+  </si>
+  <si>
+    <t>Xây dựng danh sách liên kết lớp C++</t>
+  </si>
+  <si>
+    <t>21/10/2018</t>
+  </si>
+  <si>
+    <t>21/11/2018</t>
+  </si>
+  <si>
+    <t>25/11/2018</t>
+  </si>
+  <si>
+    <t>30/11/2018</t>
+  </si>
+  <si>
+    <t>7/112018</t>
   </si>
 </sst>
 </file>
@@ -167,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -202,6 +235,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,7 +581,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -548,9 +594,7 @@
       <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="10" t="s">
         <v>9</v>
       </c>
@@ -566,7 +610,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>8</v>
@@ -589,10 +633,10 @@
       <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
         <v>9</v>
       </c>
@@ -608,21 +652,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="9">
-        <v>43291</v>
-      </c>
-      <c r="G7" s="13">
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="12">
         <v>1</v>
       </c>
     </row>
@@ -631,19 +673,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="12">
+      <c r="F8" s="9">
+        <v>43291</v>
+      </c>
+      <c r="G8" s="13">
         <v>1</v>
       </c>
     </row>
@@ -652,14 +694,14 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="7" t="s">
-        <v>8</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>9</v>
@@ -673,38 +715,38 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="14"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>22</v>
+      <c r="D11" s="7"/>
+      <c r="E11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="G11" s="14"/>
     </row>
@@ -713,28 +755,26 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="7" t="s">
-        <v>8</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="12">
-        <v>0.4</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>8</v>
@@ -743,10 +783,10 @@
         <v>8</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G13" s="14"/>
     </row>
@@ -754,37 +794,215 @@
       <c r="A14" s="8">
         <v>11</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="B14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>28</v>
+      <c r="E14" s="9">
+        <v>43110</v>
+      </c>
+      <c r="F14" s="9">
+        <v>43291</v>
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="3:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="9">
+        <v>43111</v>
+      </c>
+      <c r="F15" s="19">
+        <v>43170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="19">
+        <v>43170</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="8">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="D17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="17">
+        <v>43110</v>
+      </c>
+      <c r="F17" s="18">
+        <v>43291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="18">
+        <v>43291</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>16</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="18">
+        <v>43292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="17">
+        <v>43110</v>
+      </c>
+      <c r="F20" s="18">
+        <v>43291</v>
+      </c>
+      <c r="G20" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="5"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="5"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="5"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="5"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Quá trình làm đồ án.xlsx
+++ b/Quá trình làm đồ án.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
   <si>
     <t>BẢNG PHÂN CÔNG CÔNG VIỆC THỰC HIỆN ĐỒ ÁN CUỐI KÌ DATASTRUCTURE HK1 2018 (Dự kiến )</t>
   </si>
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,10 +611,10 @@
       <c r="B5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="12"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="E5" s="6" t="s">
         <v>9</v>
       </c>
@@ -633,9 +633,7 @@
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
